--- a/ios_names.xlsx
+++ b/ios_names.xlsx
@@ -22,7 +22,7 @@
     <t>Num_Ratings</t>
   </si>
   <si>
-    <t>Num_reviews</t>
+    <t>Num_Reviews</t>
   </si>
   <si>
     <t>SOCIAL</t>
